--- a/data/pca/factorExposure/factorExposure_2016-07-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01001467917128901</v>
+        <v>0.01278124488197008</v>
       </c>
       <c r="C2">
-        <v>-0.05074742086368138</v>
+        <v>0.04097748094601047</v>
       </c>
       <c r="D2">
-        <v>0.03588684768238189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0622259761910777</v>
+      </c>
+      <c r="E2">
+        <v>-0.07214364273523066</v>
+      </c>
+      <c r="F2">
+        <v>0.05846482869501279</v>
+      </c>
+      <c r="G2">
+        <v>0.04008254549934155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04223201671818975</v>
+        <v>0.02866378625979679</v>
       </c>
       <c r="C3">
-        <v>-0.1196644938178663</v>
+        <v>0.07929867194712589</v>
       </c>
       <c r="D3">
-        <v>0.09904261508844873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08925987812076216</v>
+      </c>
+      <c r="E3">
+        <v>-0.0666471059807575</v>
+      </c>
+      <c r="F3">
+        <v>-0.02164291823883649</v>
+      </c>
+      <c r="G3">
+        <v>-0.03293214590629344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05991311681969995</v>
+        <v>0.05765686102440491</v>
       </c>
       <c r="C4">
-        <v>-0.05983406872246978</v>
+        <v>0.06470015692854701</v>
       </c>
       <c r="D4">
-        <v>0.03379613132871985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0602965340238344</v>
+      </c>
+      <c r="E4">
+        <v>-0.07441011819865094</v>
+      </c>
+      <c r="F4">
+        <v>0.07267554325372595</v>
+      </c>
+      <c r="G4">
+        <v>-0.03815257415924851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03928259020097982</v>
+        <v>0.03556962722476849</v>
       </c>
       <c r="C6">
-        <v>-0.04059523998811407</v>
+        <v>0.03149323170311458</v>
       </c>
       <c r="D6">
-        <v>0.03007799782030462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06417384554297749</v>
+      </c>
+      <c r="E6">
+        <v>-0.07688594184017364</v>
+      </c>
+      <c r="F6">
+        <v>0.04993490608931242</v>
+      </c>
+      <c r="G6">
+        <v>-0.02317479567898513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02090866890402635</v>
+        <v>0.01840290566545858</v>
       </c>
       <c r="C7">
-        <v>-0.0446474645892727</v>
+        <v>0.03865817714921949</v>
       </c>
       <c r="D7">
-        <v>-0.004072115018655877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0392054887903773</v>
+      </c>
+      <c r="E7">
+        <v>-0.05377609609750806</v>
+      </c>
+      <c r="F7">
+        <v>0.09330161544491783</v>
+      </c>
+      <c r="G7">
+        <v>-0.0113628418018946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00368073622094186</v>
+        <v>0.003159158054973761</v>
       </c>
       <c r="C8">
-        <v>-0.03123842544046328</v>
+        <v>0.03039204750406138</v>
       </c>
       <c r="D8">
-        <v>0.02167184850253659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03190753984864082</v>
+      </c>
+      <c r="E8">
+        <v>-0.05103929739025726</v>
+      </c>
+      <c r="F8">
+        <v>0.03037150567680143</v>
+      </c>
+      <c r="G8">
+        <v>-0.008553940708201429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03290067788838101</v>
+        <v>0.03677966037462731</v>
       </c>
       <c r="C9">
-        <v>-0.04638709406315537</v>
+        <v>0.05182232171501802</v>
       </c>
       <c r="D9">
-        <v>0.01680738140099401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04325295922605804</v>
+      </c>
+      <c r="E9">
+        <v>-0.06268135415302448</v>
+      </c>
+      <c r="F9">
+        <v>0.07794783824575952</v>
+      </c>
+      <c r="G9">
+        <v>-0.02443526056958696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07940795462430444</v>
+        <v>0.100003820254788</v>
       </c>
       <c r="C10">
-        <v>0.1924119031002158</v>
+        <v>-0.1967655387500796</v>
       </c>
       <c r="D10">
-        <v>-0.002492118219829476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002813372467412437</v>
+      </c>
+      <c r="E10">
+        <v>-0.04716093731732287</v>
+      </c>
+      <c r="F10">
+        <v>0.03563860237759373</v>
+      </c>
+      <c r="G10">
+        <v>-0.01052904622302533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04034932772263088</v>
+        <v>0.03644670368876758</v>
       </c>
       <c r="C11">
-        <v>-0.05569387536887934</v>
+        <v>0.05093267837832484</v>
       </c>
       <c r="D11">
-        <v>0.01686558303910549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0349127340288809</v>
+      </c>
+      <c r="E11">
+        <v>-0.02025504689442459</v>
+      </c>
+      <c r="F11">
+        <v>0.06277772132619557</v>
+      </c>
+      <c r="G11">
+        <v>-0.01725876921480345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04035427992100567</v>
+        <v>0.03771358073829247</v>
       </c>
       <c r="C12">
-        <v>-0.04918122916032069</v>
+        <v>0.04736946964813876</v>
       </c>
       <c r="D12">
-        <v>0.004981085336631825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02759178338476832</v>
+      </c>
+      <c r="E12">
+        <v>-0.02755647992815558</v>
+      </c>
+      <c r="F12">
+        <v>0.06193157273934376</v>
+      </c>
+      <c r="G12">
+        <v>-0.0142531621616873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01313495122481463</v>
+        <v>0.01192366760666048</v>
       </c>
       <c r="C13">
-        <v>-0.05599329290131997</v>
+        <v>0.0463749635203737</v>
       </c>
       <c r="D13">
-        <v>0.01783217364146432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05760612824784644</v>
+      </c>
+      <c r="E13">
+        <v>-0.08887678146354781</v>
+      </c>
+      <c r="F13">
+        <v>0.08578777700544152</v>
+      </c>
+      <c r="G13">
+        <v>-0.02044571945675168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006245087812901307</v>
+        <v>0.004587973159196231</v>
       </c>
       <c r="C14">
-        <v>-0.0387728167079502</v>
+        <v>0.03391217092234326</v>
       </c>
       <c r="D14">
-        <v>-0.01237473137619266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02543004059990124</v>
+      </c>
+      <c r="E14">
+        <v>-0.04230209128513406</v>
+      </c>
+      <c r="F14">
+        <v>0.0874152451048133</v>
+      </c>
+      <c r="G14">
+        <v>0.002318280232243189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002808783385091298</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005170319719213405</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007014768041305177</v>
+      </c>
+      <c r="E15">
+        <v>-0.00284178315835256</v>
+      </c>
+      <c r="F15">
+        <v>0.005570082131445078</v>
+      </c>
+      <c r="G15">
+        <v>9.270455826758275e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03669778357388068</v>
+        <v>0.03429648647278406</v>
       </c>
       <c r="C16">
-        <v>-0.04861704910882732</v>
+        <v>0.04580238918992149</v>
       </c>
       <c r="D16">
-        <v>0.0106020628693388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02821578509027939</v>
+      </c>
+      <c r="E16">
+        <v>-0.03406854015067826</v>
+      </c>
+      <c r="F16">
+        <v>0.06310588227422861</v>
+      </c>
+      <c r="G16">
+        <v>-0.002893539545385918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02058988800952937</v>
+        <v>0.0164094457844859</v>
       </c>
       <c r="C19">
-        <v>-0.06592910266471114</v>
+        <v>0.05070576331666384</v>
       </c>
       <c r="D19">
-        <v>0.08189789994385278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09192876172856002</v>
+      </c>
+      <c r="E19">
+        <v>-0.09953674079251647</v>
+      </c>
+      <c r="F19">
+        <v>0.06292559183661485</v>
+      </c>
+      <c r="G19">
+        <v>0.02564258434351171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01598684908836761</v>
+        <v>0.01364550541269423</v>
       </c>
       <c r="C20">
-        <v>-0.04947839359205126</v>
+        <v>0.04167076081719658</v>
       </c>
       <c r="D20">
-        <v>0.01480430255531904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04006601450549389</v>
+      </c>
+      <c r="E20">
+        <v>-0.07244780494063977</v>
+      </c>
+      <c r="F20">
+        <v>0.07001704803383502</v>
+      </c>
+      <c r="G20">
+        <v>-0.007500065255910095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009654783549149606</v>
+        <v>0.009409978008488414</v>
       </c>
       <c r="C21">
-        <v>-0.0505934012257379</v>
+        <v>0.04487373732448258</v>
       </c>
       <c r="D21">
-        <v>0.03730050842596268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06766462373649676</v>
+      </c>
+      <c r="E21">
+        <v>-0.1086132040118913</v>
+      </c>
+      <c r="F21">
+        <v>0.1068019233822893</v>
+      </c>
+      <c r="G21">
+        <v>-0.00842871720059259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0005479931330167057</v>
+        <v>0.002571063678080821</v>
       </c>
       <c r="C22">
-        <v>-0.0006120185498768931</v>
+        <v>0.025001560281591</v>
       </c>
       <c r="D22">
-        <v>0.001603853772383363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03968766862393289</v>
+      </c>
+      <c r="E22">
+        <v>-0.0315549879146038</v>
+      </c>
+      <c r="F22">
+        <v>0.008699608221105723</v>
+      </c>
+      <c r="G22">
+        <v>-0.04003185849631297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0005535387810488863</v>
+        <v>0.002642815981355091</v>
       </c>
       <c r="C23">
-        <v>-0.0006123018256677083</v>
+        <v>0.02514812079745037</v>
       </c>
       <c r="D23">
-        <v>0.001611152728539247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03935409746310177</v>
+      </c>
+      <c r="E23">
+        <v>-0.03183221270336876</v>
+      </c>
+      <c r="F23">
+        <v>0.008475707902805543</v>
+      </c>
+      <c r="G23">
+        <v>-0.04023442688862027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03289605225305905</v>
+        <v>0.03397978249662779</v>
       </c>
       <c r="C24">
-        <v>-0.0512232646846719</v>
+        <v>0.0534169097250082</v>
       </c>
       <c r="D24">
-        <v>0.01035594886579893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02802914141298909</v>
+      </c>
+      <c r="E24">
+        <v>-0.03442049635277392</v>
+      </c>
+      <c r="F24">
+        <v>0.06943149930191522</v>
+      </c>
+      <c r="G24">
+        <v>-0.01082304603679441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04693068207581751</v>
+        <v>0.04405369195390394</v>
       </c>
       <c r="C25">
-        <v>-0.06214155865074007</v>
+        <v>0.05745420748663468</v>
       </c>
       <c r="D25">
-        <v>0.00175825990252071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02650136508959182</v>
+      </c>
+      <c r="E25">
+        <v>-0.02697410616267188</v>
+      </c>
+      <c r="F25">
+        <v>0.07310456754685957</v>
+      </c>
+      <c r="G25">
+        <v>-0.02798060560349648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01476317326634374</v>
+        <v>0.0146496602463666</v>
       </c>
       <c r="C26">
-        <v>-0.01874346490705166</v>
+        <v>0.0185855671224217</v>
       </c>
       <c r="D26">
-        <v>-0.0001387124874137775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02511015231387797</v>
+      </c>
+      <c r="E26">
+        <v>-0.04295359935632578</v>
+      </c>
+      <c r="F26">
+        <v>0.06331535751751273</v>
+      </c>
+      <c r="G26">
+        <v>0.01092473556467108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09599105396294527</v>
+        <v>0.1347250945726051</v>
       </c>
       <c r="C28">
-        <v>0.2382327171846086</v>
+        <v>-0.2483521732945815</v>
       </c>
       <c r="D28">
-        <v>-0.004310173877304225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01766939118548322</v>
+      </c>
+      <c r="E28">
+        <v>-0.06214888897309587</v>
+      </c>
+      <c r="F28">
+        <v>0.05304971162282539</v>
+      </c>
+      <c r="G28">
+        <v>-0.02162340965727861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006752823877332653</v>
+        <v>0.006037240050619101</v>
       </c>
       <c r="C29">
-        <v>-0.03201671298126501</v>
+        <v>0.02999111686962629</v>
       </c>
       <c r="D29">
-        <v>-0.0157710964600341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01966290544046875</v>
+      </c>
+      <c r="E29">
+        <v>-0.04283179931565675</v>
+      </c>
+      <c r="F29">
+        <v>0.08168635610000001</v>
+      </c>
+      <c r="G29">
+        <v>-0.01106583146820553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04605741196856133</v>
+        <v>0.04198332263695213</v>
       </c>
       <c r="C30">
-        <v>-0.06455823494764225</v>
+        <v>0.06450797141372215</v>
       </c>
       <c r="D30">
-        <v>0.07818260661626865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1088340268402933</v>
+      </c>
+      <c r="E30">
+        <v>-0.06624383821961524</v>
+      </c>
+      <c r="F30">
+        <v>0.07901443589976434</v>
+      </c>
+      <c r="G30">
+        <v>0.01202068308097075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05365419602379574</v>
+        <v>0.05584030224642968</v>
       </c>
       <c r="C31">
-        <v>-0.04042863186443516</v>
+        <v>0.05811229197046597</v>
       </c>
       <c r="D31">
-        <v>-0.02799311155215255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01068340261014548</v>
+      </c>
+      <c r="E31">
+        <v>-0.06565061215866942</v>
+      </c>
+      <c r="F31">
+        <v>0.06376920155884604</v>
+      </c>
+      <c r="G31">
+        <v>-0.0493357204735957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002083157514889625</v>
+        <v>0.00491440174436672</v>
       </c>
       <c r="C32">
-        <v>-0.03680465276699797</v>
+        <v>0.03385900423173625</v>
       </c>
       <c r="D32">
-        <v>0.04301133956775864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05405595798481654</v>
+      </c>
+      <c r="E32">
+        <v>-0.04590219608356929</v>
+      </c>
+      <c r="F32">
+        <v>0.0621511808498539</v>
+      </c>
+      <c r="G32">
+        <v>0.007943635414585083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02609443349477965</v>
+        <v>0.02413487752819687</v>
       </c>
       <c r="C33">
-        <v>-0.06182423985795477</v>
+        <v>0.05574335571155472</v>
       </c>
       <c r="D33">
-        <v>0.04749664864471804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.080649977297286</v>
+      </c>
+      <c r="E33">
+        <v>-0.07776318917645812</v>
+      </c>
+      <c r="F33">
+        <v>0.1092939162712336</v>
+      </c>
+      <c r="G33">
+        <v>-0.0230067438457678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04521940976136942</v>
+        <v>0.04152551988173763</v>
       </c>
       <c r="C34">
-        <v>-0.0658980231937133</v>
+        <v>0.06438474453087167</v>
       </c>
       <c r="D34">
-        <v>0.01494592690099386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03565314972174928</v>
+      </c>
+      <c r="E34">
+        <v>-0.007220885250086196</v>
+      </c>
+      <c r="F34">
+        <v>0.07538538125914344</v>
+      </c>
+      <c r="G34">
+        <v>-0.01307087156712045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01376511491381244</v>
+        <v>0.01353633957379944</v>
       </c>
       <c r="C36">
-        <v>-0.01554512306668546</v>
+        <v>0.0131639743939268</v>
       </c>
       <c r="D36">
-        <v>-0.001329459152849691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02711947410766079</v>
+      </c>
+      <c r="E36">
+        <v>-0.0518359363324765</v>
+      </c>
+      <c r="F36">
+        <v>0.06778199653324794</v>
+      </c>
+      <c r="G36">
+        <v>-0.01143396461856262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03054081450220741</v>
+        <v>0.02411810605286525</v>
       </c>
       <c r="C38">
-        <v>-0.03039986263473482</v>
+        <v>0.0244273198236478</v>
       </c>
       <c r="D38">
-        <v>-0.005992808463482354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02785230358497465</v>
+      </c>
+      <c r="E38">
+        <v>-0.04605606025880953</v>
+      </c>
+      <c r="F38">
+        <v>0.05639725283769673</v>
+      </c>
+      <c r="G38">
+        <v>-0.00302472778238322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04491298634281303</v>
+        <v>0.04048461940997377</v>
       </c>
       <c r="C39">
-        <v>-0.07066552756664393</v>
+        <v>0.06766080453797571</v>
       </c>
       <c r="D39">
-        <v>0.02335345829421623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05597421971557875</v>
+      </c>
+      <c r="E39">
+        <v>-0.03955455511221279</v>
+      </c>
+      <c r="F39">
+        <v>0.08127799682355207</v>
+      </c>
+      <c r="G39">
+        <v>0.01098223902862351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01269258199835996</v>
+        <v>0.01370529729142745</v>
       </c>
       <c r="C40">
-        <v>-0.05279074626348343</v>
+        <v>0.03975834397633798</v>
       </c>
       <c r="D40">
-        <v>0.01803795393556104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03725619425099617</v>
+      </c>
+      <c r="E40">
+        <v>-0.07770595250110002</v>
+      </c>
+      <c r="F40">
+        <v>0.06272347195685561</v>
+      </c>
+      <c r="G40">
+        <v>-0.04012447656706436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01952899789463809</v>
+        <v>0.01847131719135767</v>
       </c>
       <c r="C41">
-        <v>-0.006715454250116959</v>
+        <v>0.0084364448823433</v>
       </c>
       <c r="D41">
-        <v>-0.00183542548703938</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01569168813073456</v>
+      </c>
+      <c r="E41">
+        <v>-0.05151128788673338</v>
+      </c>
+      <c r="F41">
+        <v>0.05852121794095485</v>
+      </c>
+      <c r="G41">
+        <v>-0.003930875641004754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03540944730202266</v>
+        <v>0.02837639848051773</v>
       </c>
       <c r="C43">
-        <v>-0.02546342581600063</v>
+        <v>0.02298212985037371</v>
       </c>
       <c r="D43">
-        <v>0.02334419653418819</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04141259238922485</v>
+      </c>
+      <c r="E43">
+        <v>-0.06338295099324781</v>
+      </c>
+      <c r="F43">
+        <v>0.06531867921416877</v>
+      </c>
+      <c r="G43">
+        <v>-0.02299406557343082</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01257447323438348</v>
+        <v>0.01423120948042106</v>
       </c>
       <c r="C44">
-        <v>-0.06741782791024117</v>
+        <v>0.05191556051730754</v>
       </c>
       <c r="D44">
-        <v>0.01224136559594215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04159477415152243</v>
+      </c>
+      <c r="E44">
+        <v>-0.08346128615794157</v>
+      </c>
+      <c r="F44">
+        <v>0.06734439283149421</v>
+      </c>
+      <c r="G44">
+        <v>0.005964088088643574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00530495235143496</v>
+        <v>0.007980098895949514</v>
       </c>
       <c r="C46">
-        <v>-0.02480335206987182</v>
+        <v>0.02768005633185951</v>
       </c>
       <c r="D46">
-        <v>-0.01884083231540477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0126089405842024</v>
+      </c>
+      <c r="E46">
+        <v>-0.05183047977831519</v>
+      </c>
+      <c r="F46">
+        <v>0.09463121675902715</v>
+      </c>
+      <c r="G46">
+        <v>-0.003644250318400989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0821643247969755</v>
+        <v>0.08781794133663488</v>
       </c>
       <c r="C47">
-        <v>-0.0697135174012574</v>
+        <v>0.08012765711850967</v>
       </c>
       <c r="D47">
-        <v>-0.0278314936017096</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01573996890120904</v>
+      </c>
+      <c r="E47">
+        <v>-0.06951682301477197</v>
+      </c>
+      <c r="F47">
+        <v>0.06909140204519847</v>
+      </c>
+      <c r="G47">
+        <v>-0.05232469167982921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0178459815350577</v>
+        <v>0.01590472255187759</v>
       </c>
       <c r="C48">
-        <v>-0.01529053925702575</v>
+        <v>0.01747799757135471</v>
       </c>
       <c r="D48">
-        <v>-0.0146362362083102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01703140070908215</v>
+      </c>
+      <c r="E48">
+        <v>-0.06308627271616271</v>
+      </c>
+      <c r="F48">
+        <v>0.08386442300890054</v>
+      </c>
+      <c r="G48">
+        <v>-0.01020799344865552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07908754447935458</v>
+        <v>0.07109982424185085</v>
       </c>
       <c r="C50">
-        <v>-0.07507882608534554</v>
+        <v>0.07289619249928864</v>
       </c>
       <c r="D50">
-        <v>-0.03002760537865101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003098686849846481</v>
+      </c>
+      <c r="E50">
+        <v>-0.07216949197302129</v>
+      </c>
+      <c r="F50">
+        <v>0.04831649071494621</v>
+      </c>
+      <c r="G50">
+        <v>-0.07112834350207507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01506977985640815</v>
+        <v>0.01101758682873286</v>
       </c>
       <c r="C51">
-        <v>-0.05253813614157076</v>
+        <v>0.03424243484309619</v>
       </c>
       <c r="D51">
-        <v>0.02785542269123406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05027797623462364</v>
+      </c>
+      <c r="E51">
+        <v>-0.04159044162969394</v>
+      </c>
+      <c r="F51">
+        <v>0.07049960125354895</v>
+      </c>
+      <c r="G51">
+        <v>0.0190651514389788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08007259910843956</v>
+        <v>0.09400450452796852</v>
       </c>
       <c r="C53">
-        <v>-0.07812745514681577</v>
+        <v>0.08712574683406342</v>
       </c>
       <c r="D53">
-        <v>-0.03951635513009016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03904207779048504</v>
+      </c>
+      <c r="E53">
+        <v>-0.06850235891577132</v>
+      </c>
+      <c r="F53">
+        <v>0.07873328224811606</v>
+      </c>
+      <c r="G53">
+        <v>-0.06547676564618277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02985091148944807</v>
+        <v>0.02801380860569599</v>
       </c>
       <c r="C54">
-        <v>-0.02938901876376996</v>
+        <v>0.02824990404533422</v>
       </c>
       <c r="D54">
-        <v>0.004198056358587899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03136178724533795</v>
+      </c>
+      <c r="E54">
+        <v>-0.05052614596543465</v>
+      </c>
+      <c r="F54">
+        <v>0.09229199166538853</v>
+      </c>
+      <c r="G54">
+        <v>-0.01192454894337835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07431003436634462</v>
+        <v>0.08546281722151795</v>
       </c>
       <c r="C55">
-        <v>-0.05900086204788971</v>
+        <v>0.06999748248505137</v>
       </c>
       <c r="D55">
-        <v>-0.04908801779916258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04743548330552728</v>
+      </c>
+      <c r="E55">
+        <v>-0.05228513498166389</v>
+      </c>
+      <c r="F55">
+        <v>0.05558106920751956</v>
+      </c>
+      <c r="G55">
+        <v>-0.05343730929575029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1435745456827458</v>
+        <v>0.1479693441805121</v>
       </c>
       <c r="C56">
-        <v>-0.09481390527048726</v>
+        <v>0.1047743634579126</v>
       </c>
       <c r="D56">
-        <v>-0.04349209918307684</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04595274997989077</v>
+      </c>
+      <c r="E56">
+        <v>-0.0533975739579785</v>
+      </c>
+      <c r="F56">
+        <v>0.04183154104551727</v>
+      </c>
+      <c r="G56">
+        <v>-0.05849819892527305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0007560483841209613</v>
+        <v>0.0002580248257576443</v>
       </c>
       <c r="C57">
-        <v>0.002140185650679395</v>
+        <v>-0.001169673095434951</v>
       </c>
       <c r="D57">
-        <v>0.0130000791780648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01073588945066575</v>
+      </c>
+      <c r="E57">
+        <v>-0.006714729033392865</v>
+      </c>
+      <c r="F57">
+        <v>0.008253782316726386</v>
+      </c>
+      <c r="G57">
+        <v>-0.000264440188479853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04789674934869716</v>
+        <v>0.02899346869276919</v>
       </c>
       <c r="C58">
-        <v>-0.03949228426891265</v>
+        <v>0.03282298189544886</v>
       </c>
       <c r="D58">
-        <v>0.645531045912859</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4134596780241228</v>
+      </c>
+      <c r="E58">
+        <v>-0.621535922347991</v>
+      </c>
+      <c r="F58">
+        <v>-0.5793136722074029</v>
+      </c>
+      <c r="G58">
+        <v>0.09546665098044807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1333170804528565</v>
+        <v>0.1428759241441221</v>
       </c>
       <c r="C59">
-        <v>0.1914256466005273</v>
+        <v>-0.1869900867074392</v>
       </c>
       <c r="D59">
-        <v>0.0204730024327826</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02796084532678059</v>
+      </c>
+      <c r="E59">
+        <v>-0.02549845268172165</v>
+      </c>
+      <c r="F59">
+        <v>0.02081504471718693</v>
+      </c>
+      <c r="G59">
+        <v>0.02883761593867119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3091572848059427</v>
+        <v>0.2829746994430254</v>
       </c>
       <c r="C60">
-        <v>-0.09877947563440996</v>
+        <v>0.09804063195926266</v>
       </c>
       <c r="D60">
-        <v>0.1531928873819955</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2235728949480849</v>
+      </c>
+      <c r="E60">
+        <v>0.2769601485099881</v>
+      </c>
+      <c r="F60">
+        <v>-0.0795108170223799</v>
+      </c>
+      <c r="G60">
+        <v>-0.05148163592392492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0418757517611769</v>
+        <v>0.04098850073050358</v>
       </c>
       <c r="C61">
-        <v>-0.06680585424588248</v>
+        <v>0.06266315545167828</v>
       </c>
       <c r="D61">
-        <v>0.01710808059485744</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0464203720719786</v>
+      </c>
+      <c r="E61">
+        <v>-0.04306470997311871</v>
+      </c>
+      <c r="F61">
+        <v>0.07045061411044014</v>
+      </c>
+      <c r="G61">
+        <v>-0.01391945739223582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01444957483145855</v>
+        <v>0.0146871595527888</v>
       </c>
       <c r="C63">
-        <v>-0.03318593867002721</v>
+        <v>0.03149416170607375</v>
       </c>
       <c r="D63">
-        <v>-0.01093537711584256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02035838449818332</v>
+      </c>
+      <c r="E63">
+        <v>-0.05488910176356328</v>
+      </c>
+      <c r="F63">
+        <v>0.06330867725650692</v>
+      </c>
+      <c r="G63">
+        <v>-0.02973658257550208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04861314546602204</v>
+        <v>0.056280147008012</v>
       </c>
       <c r="C64">
-        <v>-0.0452956869643909</v>
+        <v>0.05601851190667023</v>
       </c>
       <c r="D64">
-        <v>0.005513599703467661</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009494299127410786</v>
+      </c>
+      <c r="E64">
+        <v>-0.03695070855143096</v>
+      </c>
+      <c r="F64">
+        <v>0.08271125902198509</v>
+      </c>
+      <c r="G64">
+        <v>-0.01343995322236144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08577119093049562</v>
+        <v>0.06942005446106196</v>
       </c>
       <c r="C65">
-        <v>-0.03575376211319061</v>
+        <v>0.03257052996593272</v>
       </c>
       <c r="D65">
-        <v>0.05141380080481328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08584819392765648</v>
+      </c>
+      <c r="E65">
+        <v>-0.040351866516266</v>
+      </c>
+      <c r="F65">
+        <v>0.00118973249960561</v>
+      </c>
+      <c r="G65">
+        <v>-0.0009623900617707011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06183306948943755</v>
+        <v>0.05273216554408155</v>
       </c>
       <c r="C66">
-        <v>-0.09993909768041974</v>
+        <v>0.08875559312904523</v>
       </c>
       <c r="D66">
-        <v>0.0463092301146998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08259086523746663</v>
+      </c>
+      <c r="E66">
+        <v>-0.04536803638696495</v>
+      </c>
+      <c r="F66">
+        <v>0.08229457177321868</v>
+      </c>
+      <c r="G66">
+        <v>-0.005334770027746137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05299267658411578</v>
+        <v>0.0465356906738718</v>
       </c>
       <c r="C67">
-        <v>-0.03393742991216807</v>
+        <v>0.02998007706301078</v>
       </c>
       <c r="D67">
-        <v>-0.007635037563258465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01465113097268132</v>
+      </c>
+      <c r="E67">
+        <v>-0.02575348252933715</v>
+      </c>
+      <c r="F67">
+        <v>0.04795914357048511</v>
+      </c>
+      <c r="G67">
+        <v>-0.009514996983393498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1300837404180154</v>
+        <v>0.149822018174452</v>
       </c>
       <c r="C68">
-        <v>0.2823667508091402</v>
+        <v>-0.2496972398570275</v>
       </c>
       <c r="D68">
-        <v>-0.0100724048518427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01720566637737442</v>
+      </c>
+      <c r="E68">
+        <v>-0.04380986701050484</v>
+      </c>
+      <c r="F68">
+        <v>0.01382363952721638</v>
+      </c>
+      <c r="G68">
+        <v>-0.0113407018177432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08874065505727813</v>
+        <v>0.08734267035379072</v>
       </c>
       <c r="C69">
-        <v>-0.06826476727513901</v>
+        <v>0.08666945025859255</v>
       </c>
       <c r="D69">
-        <v>-0.03751512700017506</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007888677132884067</v>
+      </c>
+      <c r="E69">
+        <v>-0.05298596237392675</v>
+      </c>
+      <c r="F69">
+        <v>0.08727734248620465</v>
+      </c>
+      <c r="G69">
+        <v>-0.03201269367765293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1199345709024177</v>
+        <v>0.1417910582393883</v>
       </c>
       <c r="C71">
-        <v>0.2485889250044938</v>
+        <v>-0.2369448537814396</v>
       </c>
       <c r="D71">
-        <v>0.02536311456529473</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01278982841204093</v>
+      </c>
+      <c r="E71">
+        <v>-0.06814076163591029</v>
+      </c>
+      <c r="F71">
+        <v>0.04985846585702967</v>
+      </c>
+      <c r="G71">
+        <v>-0.03796604880251696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08856344611275001</v>
+        <v>0.09879570650013142</v>
       </c>
       <c r="C72">
-        <v>-0.0523749285895808</v>
+        <v>0.05574241120067953</v>
       </c>
       <c r="D72">
-        <v>0.006624634024325752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02980996189147178</v>
+      </c>
+      <c r="E72">
+        <v>-0.02084140701076856</v>
+      </c>
+      <c r="F72">
+        <v>0.06725493301488916</v>
+      </c>
+      <c r="G72">
+        <v>-0.03851437992200589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4081657180839667</v>
+        <v>0.346993210509762</v>
       </c>
       <c r="C73">
-        <v>-0.06582474621478</v>
+        <v>0.07165848264883327</v>
       </c>
       <c r="D73">
-        <v>0.3804220816034958</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4616267782605434</v>
+      </c>
+      <c r="E73">
+        <v>0.4877075668614013</v>
+      </c>
+      <c r="F73">
+        <v>-0.2272560480616754</v>
+      </c>
+      <c r="G73">
+        <v>-0.1009225074109263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1058447907846456</v>
+        <v>0.1108359677599535</v>
       </c>
       <c r="C74">
-        <v>-0.09709193048471812</v>
+        <v>0.09604797229824812</v>
       </c>
       <c r="D74">
-        <v>-0.02269267474456419</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02991628295565622</v>
+      </c>
+      <c r="E74">
+        <v>-0.06928608462495012</v>
+      </c>
+      <c r="F74">
+        <v>0.04052761484935603</v>
+      </c>
+      <c r="G74">
+        <v>-0.07242394463719333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2524754144021253</v>
+        <v>0.2584869125213531</v>
       </c>
       <c r="C75">
-        <v>-0.1026553260010776</v>
+        <v>0.128014897792141</v>
       </c>
       <c r="D75">
-        <v>-0.09348960562205028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.125933849643229</v>
+      </c>
+      <c r="E75">
+        <v>-0.06864979771938307</v>
+      </c>
+      <c r="F75">
+        <v>0.01950234561881016</v>
+      </c>
+      <c r="G75">
+        <v>-0.07402447758940911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1111459572192021</v>
+        <v>0.1271014681271675</v>
       </c>
       <c r="C76">
-        <v>-0.08903116602174944</v>
+        <v>0.09866926152993286</v>
       </c>
       <c r="D76">
-        <v>-0.05038728647451289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05716486721353599</v>
+      </c>
+      <c r="E76">
+        <v>-0.08182127220583968</v>
+      </c>
+      <c r="F76">
+        <v>0.06223443758883301</v>
+      </c>
+      <c r="G76">
+        <v>-0.05702835215480154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07636419390386195</v>
+        <v>0.06105657974424816</v>
       </c>
       <c r="C77">
-        <v>-0.06361510241122577</v>
+        <v>0.07487814297971708</v>
       </c>
       <c r="D77">
-        <v>0.05227981097084233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06452864118546629</v>
+      </c>
+      <c r="E77">
+        <v>-0.09470941084715565</v>
+      </c>
+      <c r="F77">
+        <v>0.1092568014884953</v>
+      </c>
+      <c r="G77">
+        <v>0.1412074897827892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04715757310524532</v>
+        <v>0.04440850851795426</v>
       </c>
       <c r="C78">
-        <v>-0.05258904538967109</v>
+        <v>0.0597620919242153</v>
       </c>
       <c r="D78">
-        <v>0.02827765760144179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06622846255694258</v>
+      </c>
+      <c r="E78">
+        <v>-0.04835142805811353</v>
+      </c>
+      <c r="F78">
+        <v>0.08352935648701316</v>
+      </c>
+      <c r="G78">
+        <v>-0.009282952280084657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02800770516708646</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04155663691953784</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06057909379332749</v>
+      </c>
+      <c r="E79">
+        <v>-0.06621074599387788</v>
+      </c>
+      <c r="F79">
+        <v>0.03040584171427451</v>
+      </c>
+      <c r="G79">
+        <v>-0.07887120155317652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04359291421071989</v>
+        <v>0.03336893464314354</v>
       </c>
       <c r="C80">
-        <v>-0.05717870925764481</v>
+        <v>0.05573367149716139</v>
       </c>
       <c r="D80">
-        <v>0.02917731550508174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04320336253029588</v>
+      </c>
+      <c r="E80">
+        <v>-0.01605965567147678</v>
+      </c>
+      <c r="F80">
+        <v>0.03104386962958876</v>
+      </c>
+      <c r="G80">
+        <v>0.04633259469923243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.140871822947266</v>
+        <v>0.1411773198460516</v>
       </c>
       <c r="C81">
-        <v>-0.07886837230689631</v>
+        <v>0.09469516226090559</v>
       </c>
       <c r="D81">
-        <v>-0.07622471857753707</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09928949522015348</v>
+      </c>
+      <c r="E81">
+        <v>-0.08579322754925736</v>
+      </c>
+      <c r="F81">
+        <v>0.00652054484819903</v>
+      </c>
+      <c r="G81">
+        <v>-0.05101063529549941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1627993677283581</v>
+        <v>0.2053580504074759</v>
       </c>
       <c r="C82">
-        <v>-0.07299892153181438</v>
+        <v>0.1393810228311187</v>
       </c>
       <c r="D82">
-        <v>-0.156655670778175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2309801964342219</v>
+      </c>
+      <c r="E82">
+        <v>-0.01067727267230474</v>
+      </c>
+      <c r="F82">
+        <v>0.1065041210888278</v>
+      </c>
+      <c r="G82">
+        <v>-0.05705156294927512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03964836755491043</v>
+        <v>0.02780910079276086</v>
       </c>
       <c r="C83">
-        <v>-0.03063376261511991</v>
+        <v>0.04304812426255083</v>
       </c>
       <c r="D83">
-        <v>0.03374833713530467</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03298942093382973</v>
+      </c>
+      <c r="E83">
+        <v>-0.02068936687667383</v>
+      </c>
+      <c r="F83">
+        <v>0.04093837013289234</v>
+      </c>
+      <c r="G83">
+        <v>0.01950744778616663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-5.359302716212262e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0001024950287737163</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0002001573741719064</v>
+      </c>
+      <c r="E84">
+        <v>-4.656646245803323e-05</v>
+      </c>
+      <c r="F84">
+        <v>0.0007598764185067883</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004134863782295829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.218374034643338</v>
+        <v>0.2039223688688946</v>
       </c>
       <c r="C85">
-        <v>-0.1020398358200596</v>
+        <v>0.1154304505630377</v>
       </c>
       <c r="D85">
-        <v>-0.1203237957280373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09634514418328817</v>
+      </c>
+      <c r="E85">
+        <v>-0.0002016617033751768</v>
+      </c>
+      <c r="F85">
+        <v>-0.008299344984973063</v>
+      </c>
+      <c r="G85">
+        <v>-0.1263696580875111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009520674477262587</v>
+        <v>0.01046236458368881</v>
       </c>
       <c r="C86">
-        <v>-0.04356361961354579</v>
+        <v>0.03161609178945447</v>
       </c>
       <c r="D86">
-        <v>0.04347542145866329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06533828563806866</v>
+      </c>
+      <c r="E86">
+        <v>-0.06953902773690625</v>
+      </c>
+      <c r="F86">
+        <v>0.1215164997540417</v>
+      </c>
+      <c r="G86">
+        <v>0.01224777402013336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02334227589150906</v>
+        <v>0.02206982155215437</v>
       </c>
       <c r="C87">
-        <v>-0.0124850417392048</v>
+        <v>0.01969481976017019</v>
       </c>
       <c r="D87">
-        <v>0.0884074557882028</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09044764155021519</v>
+      </c>
+      <c r="E87">
+        <v>-0.1152813687290557</v>
+      </c>
+      <c r="F87">
+        <v>0.06080412727620313</v>
+      </c>
+      <c r="G87">
+        <v>0.04226868902124081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1053561104390757</v>
+        <v>0.09342937501192664</v>
       </c>
       <c r="C88">
-        <v>-0.07122469673752407</v>
+        <v>0.0632420581953021</v>
       </c>
       <c r="D88">
-        <v>-0.02297518291756984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008314099318271788</v>
+      </c>
+      <c r="E88">
+        <v>-0.04838152448624226</v>
+      </c>
+      <c r="F88">
+        <v>0.06675176541121397</v>
+      </c>
+      <c r="G88">
+        <v>0.02613412164143905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1878426625381316</v>
+        <v>0.21779924667208</v>
       </c>
       <c r="C89">
-        <v>0.3767145824896128</v>
+        <v>-0.3803742425727923</v>
       </c>
       <c r="D89">
-        <v>-0.01540481774795103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007746185759427852</v>
+      </c>
+      <c r="E89">
+        <v>-0.06746756250149957</v>
+      </c>
+      <c r="F89">
+        <v>0.0733332101937732</v>
+      </c>
+      <c r="G89">
+        <v>0.06302058610293754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1794042720609204</v>
+        <v>0.1974704226617561</v>
       </c>
       <c r="C90">
-        <v>0.3342103580642823</v>
+        <v>-0.3130445137822745</v>
       </c>
       <c r="D90">
-        <v>-0.01804764790508111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01317214135143032</v>
+      </c>
+      <c r="E90">
+        <v>-0.07575978105547453</v>
+      </c>
+      <c r="F90">
+        <v>0.03547950691865916</v>
+      </c>
+      <c r="G90">
+        <v>0.01417806863712023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1883614926504966</v>
+        <v>0.1867076777280104</v>
       </c>
       <c r="C91">
-        <v>-0.1239113008625854</v>
+        <v>0.1393850037430541</v>
       </c>
       <c r="D91">
-        <v>-0.09401731757466261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1059260878640104</v>
+      </c>
+      <c r="E91">
+        <v>-0.06540553036524846</v>
+      </c>
+      <c r="F91">
+        <v>0.0325648239493946</v>
+      </c>
+      <c r="G91">
+        <v>-0.0574377273919528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1649883684623568</v>
+        <v>0.1786235685397304</v>
       </c>
       <c r="C92">
-        <v>0.2820297009164932</v>
+        <v>-0.2867537180863374</v>
       </c>
       <c r="D92">
-        <v>-0.002861342138090309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.008145398114006197</v>
+      </c>
+      <c r="E92">
+        <v>-0.07486239691702913</v>
+      </c>
+      <c r="F92">
+        <v>0.08215844001729784</v>
+      </c>
+      <c r="G92">
+        <v>0.008304550591152501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2034499292771917</v>
+        <v>0.2216630320300146</v>
       </c>
       <c r="C93">
-        <v>0.3372889233912013</v>
+        <v>-0.3195385574147303</v>
       </c>
       <c r="D93">
-        <v>-0.01526365598819853</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005402648935110402</v>
+      </c>
+      <c r="E93">
+        <v>-0.05103588556779453</v>
+      </c>
+      <c r="F93">
+        <v>0.0380770761276886</v>
+      </c>
+      <c r="G93">
+        <v>-0.02789038753954842</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3437453618338465</v>
+        <v>0.3464076064638001</v>
       </c>
       <c r="C94">
-        <v>-0.1485035738774155</v>
+        <v>0.1808161693703961</v>
       </c>
       <c r="D94">
-        <v>-0.4905411796634612</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5064796692211586</v>
+      </c>
+      <c r="E94">
+        <v>-0.01781794392439311</v>
+      </c>
+      <c r="F94">
+        <v>-0.4479016856506065</v>
+      </c>
+      <c r="G94">
+        <v>0.3423030784397023</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1121028009970682</v>
+        <v>0.08513190414335968</v>
       </c>
       <c r="C95">
-        <v>-0.07615395612447885</v>
+        <v>0.06613579587477091</v>
       </c>
       <c r="D95">
-        <v>0.1312218722410768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1681434378688413</v>
+      </c>
+      <c r="E95">
+        <v>0.1059805503191497</v>
+      </c>
+      <c r="F95">
+        <v>0.2600258172951393</v>
+      </c>
+      <c r="G95">
+        <v>0.8555317460882694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1937619977400531</v>
+        <v>0.1869536609753705</v>
       </c>
       <c r="C98">
-        <v>-0.0227076519819658</v>
+        <v>0.03948297490837356</v>
       </c>
       <c r="D98">
-        <v>0.1442947317086075</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1836657662035291</v>
+      </c>
+      <c r="E98">
+        <v>0.1545632411096605</v>
+      </c>
+      <c r="F98">
+        <v>-0.03218031045876422</v>
+      </c>
+      <c r="G98">
+        <v>-0.09880631682137191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006705321503653388</v>
+        <v>0.006091844968877508</v>
       </c>
       <c r="C101">
-        <v>-0.03201722806351302</v>
+        <v>0.02972844069608446</v>
       </c>
       <c r="D101">
-        <v>-0.01643579728242636</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01913067915296451</v>
+      </c>
+      <c r="E101">
+        <v>-0.04348577787451348</v>
+      </c>
+      <c r="F101">
+        <v>0.08135991487025702</v>
+      </c>
+      <c r="G101">
+        <v>-0.009945047551102551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1220193413402954</v>
+        <v>0.1252695748320869</v>
       </c>
       <c r="C102">
-        <v>-0.07254705098260625</v>
+        <v>0.09819180164493793</v>
       </c>
       <c r="D102">
-        <v>-0.02858118812765555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04544414292325431</v>
+      </c>
+      <c r="E102">
+        <v>0.00162103801580718</v>
+      </c>
+      <c r="F102">
+        <v>0.04716909410084223</v>
+      </c>
+      <c r="G102">
+        <v>-0.0189612588255029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
